--- a/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link3_request400.xlsx
+++ b/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link3_request400.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.932</v>
+        <v>19.932</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0296</v>
+        <v>0.0288</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0168</v>
+        <v>0.0176</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0032</v>
+        <v>0.0024</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0024</v>
+        <v>0.0032</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -571,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9.069600000000001</v>
+        <v>9.070399999999999</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -582,7 +582,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2776</v>
+        <v>0.2768</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.348</v>
+        <v>0.3496</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -604,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0464</v>
+        <v>0.0456</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5152</v>
+        <v>0.516</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3424</v>
+        <v>0.3408</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1584</v>
+        <v>0.16</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0704</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4048</v>
+        <v>0.4056</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.404</v>
+        <v>0.4032000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.9184</v>
+        <v>1.916</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8336</v>
+        <v>0.8344000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.7288</v>
+        <v>1.728</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8368000000000001</v>
+        <v>0.8376</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.412</v>
+        <v>0.4128</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4056</v>
+        <v>0.4048</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>8.9176</v>
+        <v>8.9184</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>51.6968</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="86">
@@ -1949,7 +1949,7 @@
         <v>3.924</v>
       </c>
       <c r="C138" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="139">
@@ -1960,7 +1960,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="140">
@@ -1971,7 +1971,7 @@
         <v>2.192</v>
       </c>
       <c r="C140" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="141">
@@ -1982,7 +1982,7 @@
         <v>0.556</v>
       </c>
       <c r="C141" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="142">
@@ -1993,7 +1993,7 @@
         <v>10.644</v>
       </c>
       <c r="C142" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="143">
@@ -2012,7 +2012,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.02</v>
+        <v>1.0208</v>
       </c>
       <c r="C144" t="n">
         <v>625001</v>
@@ -2056,7 +2056,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4168</v>
+        <v>0.4176</v>
       </c>
       <c r="C148" t="n">
         <v>625001</v>
@@ -2067,7 +2067,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0408</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C149" t="n">
         <v>625001</v>
@@ -2367,7 +2367,7 @@
         <v>13.676</v>
       </c>
       <c r="C176" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="177">
@@ -2694,7 +2694,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>7.427200000000001</v>
+        <v>7.428</v>
       </c>
       <c r="C206" t="n">
         <v>1250001</v>
@@ -2705,7 +2705,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1.0208</v>
+        <v>1.02</v>
       </c>
       <c r="C207" t="n">
         <v>1250001</v>
@@ -2716,7 +2716,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8344000000000001</v>
+        <v>0.8352000000000001</v>
       </c>
       <c r="C208" t="n">
         <v>1250001</v>
@@ -2738,7 +2738,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.728</v>
+        <v>1.7272</v>
       </c>
       <c r="C210" t="n">
         <v>1250001</v>
@@ -2760,7 +2760,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.4128</v>
+        <v>0.4136</v>
       </c>
       <c r="C212" t="n">
         <v>1250001</v>
@@ -2771,7 +2771,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4048</v>
+        <v>0.404</v>
       </c>
       <c r="C213" t="n">
         <v>1250001</v>
@@ -2782,7 +2782,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.912</v>
+        <v>0.9128000000000001</v>
       </c>
       <c r="C214" t="n">
         <v>1250001</v>
@@ -2804,7 +2804,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>8.9184</v>
+        <v>8.9176</v>
       </c>
       <c r="C216" t="n">
         <v>1250001</v>
@@ -3005,7 +3005,7 @@
         <v>1.9248</v>
       </c>
       <c r="C234" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="235">
@@ -3016,7 +3016,7 @@
         <v>67.4128</v>
       </c>
       <c r="C235" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="236">
@@ -3225,7 +3225,7 @@
         <v>31.4096</v>
       </c>
       <c r="C254" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="255">
@@ -3896,7 +3896,7 @@
         <v>1.9248</v>
       </c>
       <c r="C315" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="316">
@@ -3907,7 +3907,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C316" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="317">
@@ -4116,7 +4116,7 @@
         <v>31.4088</v>
       </c>
       <c r="C335" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="336">
@@ -4787,7 +4787,7 @@
         <v>1.9248</v>
       </c>
       <c r="C396" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="397">
@@ -4798,7 +4798,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C397" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="398">
@@ -5007,7 +5007,7 @@
         <v>31.4088</v>
       </c>
       <c r="C416" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="417">
@@ -5678,7 +5678,7 @@
         <v>1.9248</v>
       </c>
       <c r="C477" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="478">
@@ -5689,7 +5689,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C478" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="479">
@@ -5898,7 +5898,7 @@
         <v>31.4088</v>
       </c>
       <c r="C497" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="498">
@@ -6569,7 +6569,7 @@
         <v>1.9248</v>
       </c>
       <c r="C558" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="559">
@@ -6580,7 +6580,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C559" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="560">
@@ -6789,7 +6789,7 @@
         <v>31.4088</v>
       </c>
       <c r="C578" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="579">
@@ -7460,7 +7460,7 @@
         <v>1.9248</v>
       </c>
       <c r="C639" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="640">
@@ -7471,7 +7471,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C640" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="641">
@@ -7680,7 +7680,7 @@
         <v>31.4088</v>
       </c>
       <c r="C659" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="660">
@@ -8351,7 +8351,7 @@
         <v>1.9248</v>
       </c>
       <c r="C720" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="721">
@@ -8362,7 +8362,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C721" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="722">
@@ -8571,7 +8571,7 @@
         <v>31.4088</v>
       </c>
       <c r="C740" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="741">
@@ -9242,7 +9242,7 @@
         <v>1.9248</v>
       </c>
       <c r="C801" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="802">
@@ -9253,7 +9253,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C802" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="803">
@@ -9382,7 +9382,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>14.4264</v>
+        <v>14.4272</v>
       </c>
       <c r="C814" t="n">
         <v>10312501</v>
@@ -9393,7 +9393,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>4.4272</v>
+        <v>4.4264</v>
       </c>
       <c r="C815" t="n">
         <v>10312501</v>
@@ -9462,7 +9462,7 @@
         <v>31.408</v>
       </c>
       <c r="C821" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="822">
@@ -10133,7 +10133,7 @@
         <v>1.9248</v>
       </c>
       <c r="C882" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="883">
@@ -10144,7 +10144,7 @@
         <v>67.41119999999999</v>
       </c>
       <c r="C883" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="884">
@@ -10353,7 +10353,7 @@
         <v>31.408</v>
       </c>
       <c r="C902" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="903">
@@ -10427,7 +10427,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>240.9952</v>
+        <v>224.9952</v>
       </c>
       <c r="C909" t="n">
         <v>12187501</v>
